--- a/model_logiczny.xlsx
+++ b/model_logiczny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-121-23\Desktop\ModelowanieDanych\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4be20116ea0b14e8/Pulpit/ModelowanieDanych/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61F462F-32B3-4C9F-B36E-9004DE01FEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="13_ncr:1_{E61F462F-32B3-4C9F-B36E-9004DE01FEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{706566E3-E3B1-4441-A5E1-54FEEA73591E}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabele" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
   <si>
     <t>Krotność</t>
   </si>
@@ -106,9 +106,6 @@
     <t>tabela łącząca</t>
   </si>
   <si>
-    <t>rozpacz</t>
-  </si>
-  <si>
     <t>order_id</t>
   </si>
   <si>
@@ -116,6 +113,63 @@
   </si>
   <si>
     <t>order_date</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>flavor</t>
+  </si>
+  <si>
+    <t>topping</t>
+  </si>
+  <si>
+    <t>item_value</t>
+  </si>
+  <si>
+    <t>container_name</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>container_price</t>
+  </si>
+  <si>
+    <t>cone_type</t>
+  </si>
+  <si>
+    <t>cone_flavor</t>
+  </si>
+  <si>
+    <t>cup_lid</t>
+  </si>
+  <si>
+    <t>RGB</t>
+  </si>
+  <si>
+    <t>color_name</t>
+  </si>
+  <si>
+    <t>int(liczba)</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>varcahr(20)</t>
+  </si>
+  <si>
+    <t>boolean</t>
   </si>
 </sst>
 </file>
@@ -156,15 +210,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -361,45 +421,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -445,10 +549,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -486,9 +594,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,26 +629,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,26 +664,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -768,70 +842,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -847,63 +921,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:H14"/>
+  <dimension ref="B1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="1"/>
@@ -915,10 +990,10 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="1"/>
@@ -930,10 +1005,10 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1"/>
@@ -945,10 +1020,10 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="1"/>
@@ -960,37 +1035,25 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E11" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E11" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1009,305 +1072,383 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:E41"/>
+  <dimension ref="B1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="23" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+    </row>
+    <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+    </row>
+    <row r="28" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C28" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D28" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E28" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+    <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+    </row>
+    <row r="30" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+    </row>
+    <row r="32" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C32" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D32" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E32" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
+    </row>
+    <row r="35" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25"/>
+    </row>
+    <row r="37" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B31:E31"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
     <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B27:E27"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1320,75 +1461,76 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:E9"/>
+  <dimension ref="B1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="14"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="14"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="2:5" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="14"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="14"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="14"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/model_logiczny.xlsx
+++ b/model_logiczny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4be20116ea0b14e8/Pulpit/ModelowanieDanych/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="13_ncr:1_{E61F462F-32B3-4C9F-B36E-9004DE01FEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{706566E3-E3B1-4441-A5E1-54FEEA73591E}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="13_ncr:1_{E61F462F-32B3-4C9F-B36E-9004DE01FEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{705C1028-0137-4989-B69E-AC1777064740}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabele" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="53">
   <si>
     <t>Krotność</t>
   </si>
@@ -170,6 +170,21 @@
   </si>
   <si>
     <t>boolean</t>
+  </si>
+  <si>
+    <t>color_id</t>
+  </si>
+  <si>
+    <t>cup_id</t>
+  </si>
+  <si>
+    <t>order_id,</t>
+  </si>
+  <si>
+    <t>item_id,</t>
+  </si>
+  <si>
+    <t>Pole które powinno być unikalne autoinkrementowane oraz musi być wymagalne.</t>
   </si>
 </sst>
 </file>
@@ -224,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -421,6 +436,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
@@ -428,19 +460,68 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -489,20 +570,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,10 +640,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -842,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:H11"/>
+  <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,59 +1027,44 @@
     <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H3" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="15"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="14" t="s">
@@ -998,10 +1072,10 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1016,7 +1090,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1024,41 +1098,56 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="16" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E11" s="8"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D9" xr:uid="{22B4F6C1-4D46-4DF1-A76B-FD1C5CBD1CC2}">
-      <formula1>$D$13:$D$14</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{22B4F6C1-4D46-4DF1-A76B-FD1C5CBD1CC2}">
+      <formula1>$D$14:$D$15</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1072,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:E39"/>
+  <dimension ref="B1:E41"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1088,12 +1177,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
@@ -1116,8 +1205,8 @@
       <c r="C4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="14" t="s">
@@ -1127,7 +1216,7 @@
         <v>43</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="15"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="16" t="s">
@@ -1146,12 +1235,12 @@
       <c r="E7" s="20"/>
     </row>
     <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
@@ -1174,8 +1263,8 @@
       <c r="C10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="14" t="s">
@@ -1191,7 +1280,9 @@
       <c r="B12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="15"/>
     </row>
@@ -1199,7 +1290,9 @@
       <c r="B13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="15"/>
     </row>
@@ -1220,12 +1313,12 @@
       <c r="E15" s="20"/>
     </row>
     <row r="16" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
     </row>
     <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="10" t="s">
@@ -1248,8 +1341,8 @@
       <c r="C18" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
@@ -1278,12 +1371,12 @@
       <c r="E21" s="20"/>
     </row>
     <row r="22" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="10" t="s">
@@ -1307,7 +1400,7 @@
         <v>45</v>
       </c>
       <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
+      <c r="E24" s="27"/>
     </row>
     <row r="25" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="16" t="s">
@@ -1326,12 +1419,12 @@
       <c r="E26" s="20"/>
     </row>
     <row r="27" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
     </row>
     <row r="28" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="10" t="s">
@@ -1347,103 +1440,131 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="16" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C30" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="29"/>
     </row>
     <row r="31" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="25"/>
-    </row>
-    <row r="32" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="10" t="s">
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D33" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E33" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="11" t="s">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="27"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="16" t="s">
+      <c r="D35" s="1"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C36" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="35" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="23" t="s">
+      <c r="D36" s="17"/>
+      <c r="E36" s="18"/>
+    </row>
+    <row r="37" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="25"/>
-    </row>
-    <row r="37" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="10" t="s">
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
+    </row>
+    <row r="39" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D39" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E39" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="13"/>
-    </row>
-    <row r="39" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B32:E32"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B16:E16"/>
@@ -1463,16 +1584,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1491,43 +1612,67 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="22"/>
+      <c r="B3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="14"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E4" s="15"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="14"/>
+      <c r="B5" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="15"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="14"/>
+      <c r="B6" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="21"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
+      <c r="B7" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="21"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="14"/>
+      <c r="B8" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="15"/>
     </row>
     <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="16"/>
+      <c r="B9" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="18"/>

--- a/model_logiczny.xlsx
+++ b/model_logiczny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4be20116ea0b14e8/Pulpit/ModelowanieDanych/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-121-14\Desktop\ModelowanieDanych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="226" documentId="13_ncr:1_{E61F462F-32B3-4C9F-B36E-9004DE01FEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{705C1028-0137-4989-B69E-AC1777064740}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58772629-BBDD-4227-878C-55394901DEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabele" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="69">
   <si>
     <t>Krotność</t>
   </si>
@@ -109,12 +109,6 @@
     <t>order_id</t>
   </si>
   <si>
-    <t>order_value</t>
-  </si>
-  <si>
-    <t>order_date</t>
-  </si>
-  <si>
     <t>item_id</t>
   </si>
   <si>
@@ -127,36 +121,6 @@
     <t>topping</t>
   </si>
   <si>
-    <t>item_value</t>
-  </si>
-  <si>
-    <t>container_name</t>
-  </si>
-  <si>
-    <t>capacity</t>
-  </si>
-  <si>
-    <t>container_price</t>
-  </si>
-  <si>
-    <t>cone_type</t>
-  </si>
-  <si>
-    <t>cone_flavor</t>
-  </si>
-  <si>
-    <t>cup_lid</t>
-  </si>
-  <si>
-    <t>RGB</t>
-  </si>
-  <si>
-    <t>color_name</t>
-  </si>
-  <si>
-    <t>int(liczba)</t>
-  </si>
-  <si>
     <t>money</t>
   </si>
   <si>
@@ -166,25 +130,109 @@
     <t>varchar(20)</t>
   </si>
   <si>
-    <t>varcahr(20)</t>
-  </si>
-  <si>
     <t>boolean</t>
   </si>
   <si>
-    <t>color_id</t>
-  </si>
-  <si>
     <t>cup_id</t>
   </si>
   <si>
-    <t>order_id,</t>
-  </si>
-  <si>
-    <t>item_id,</t>
-  </si>
-  <si>
-    <t>Pole które powinno być unikalne autoinkrementowane oraz musi być wymagalne.</t>
+    <t>varchar(7)</t>
+  </si>
+  <si>
+    <t>toppings</t>
+  </si>
+  <si>
+    <t>tabela walidacji</t>
+  </si>
+  <si>
+    <t>items_flavors</t>
+  </si>
+  <si>
+    <t>items_toppings</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>cones_flavors</t>
+  </si>
+  <si>
+    <t>ice_crem_flavors</t>
+  </si>
+  <si>
+    <t>items_ice_crem_flavors</t>
+  </si>
+  <si>
+    <t>cones_types</t>
+  </si>
+  <si>
+    <t>lid</t>
+  </si>
+  <si>
+    <t>rgb</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>tabela z danymi</t>
+  </si>
+  <si>
+    <t>order_id+item_id</t>
+  </si>
+  <si>
+    <t>name,rgb</t>
+  </si>
+  <si>
+    <t>container_id</t>
+  </si>
+  <si>
+    <t>comtainer_id</t>
+  </si>
+  <si>
+    <t>Tabela łącząca ma zawsze dwupolowy klucz podstawowy</t>
+  </si>
+  <si>
+    <t>cup_id+color</t>
+  </si>
+  <si>
+    <t>Tabela walidacji,więc musi być flavor</t>
+  </si>
+  <si>
+    <t>Tabela walidacji,więc musi być topping</t>
+  </si>
+  <si>
+    <t>Tabela walidacji,więc musi być type</t>
+  </si>
+  <si>
+    <t>item_id+flavor</t>
+  </si>
+  <si>
+    <t>item_id+topping</t>
+  </si>
+  <si>
+    <t>restrykcyjna</t>
+  </si>
+  <si>
+    <t>kaskadowa</t>
   </si>
 </sst>
 </file>
@@ -239,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -436,27 +484,53 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -466,73 +540,94 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="thin">
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalUp="1" diagonalDown="1">
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -570,32 +665,96 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,9 +802,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -683,9 +842,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -718,9 +877,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -753,9 +929,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -929,73 +1122,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C9"/>
+  <dimension ref="B1:C15"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B3" sqref="B3:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="C3" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="C4" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="C5" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="4" t="s">
+      <c r="C8" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="28" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1010,143 +1259,769 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:H12"/>
+  <dimension ref="B2:L45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="19" t="s">
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="F4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+      <c r="F5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+      <c r="F6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+      <c r="F7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="16" t="s">
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E12" s="8"/>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{22B4F6C1-4D46-4DF1-A76B-FD1C5CBD1CC2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D15" xr:uid="{22B4F6C1-4D46-4DF1-A76B-FD1C5CBD1CC2}">
       <formula1>$D$14:$D$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -1161,415 +2036,650 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:E41"/>
+  <dimension ref="B1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="22" t="s">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="10" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="22"/>
+    </row>
+    <row r="37" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="40" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="19"/>
+    </row>
+    <row r="45" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="24"/>
+      <c r="E46" s="25"/>
+    </row>
+    <row r="47" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="19"/>
+    </row>
+    <row r="49" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="24"/>
+      <c r="E50" s="25"/>
+    </row>
+    <row r="51" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="19"/>
+    </row>
+    <row r="53" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="28"/>
-    </row>
-    <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="C54" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="21"/>
+      <c r="E54" s="22"/>
+    </row>
+    <row r="55" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="11"/>
+    </row>
+    <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="19"/>
+    </row>
+    <row r="58" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="21"/>
+      <c r="E59" s="22"/>
+    </row>
+    <row r="60" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="11"/>
+    </row>
+    <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="19"/>
+    </row>
+    <row r="63" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="24"/>
+      <c r="E64" s="25"/>
+    </row>
+    <row r="65" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="19"/>
+    </row>
+    <row r="67" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="15"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="15"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="16" t="s">
+      <c r="C68" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-    </row>
-    <row r="16" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-    </row>
-    <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="27"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-    </row>
-    <row r="22" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-    </row>
-    <row r="23" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="27"/>
-    </row>
-    <row r="25" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-    </row>
-    <row r="27" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-    </row>
-    <row r="28" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="27"/>
-    </row>
-    <row r="30" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="29"/>
-    </row>
-    <row r="31" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-    </row>
-    <row r="32" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24"/>
-    </row>
-    <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="27"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-    </row>
-    <row r="37" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="38" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="24"/>
-    </row>
-    <row r="39" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="18"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B32:E32"/>
+  <mergeCells count="13">
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B34:E34"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B29:E29"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1582,100 +2692,200 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:E9"/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="19" t="s">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="15"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
+      <c r="D10" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="37"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="37"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
